--- a/biology/Botanique/Maquira_guianensis/Maquira_guianensis.xlsx
+++ b/biology/Botanique/Maquira_guianensis/Maquira_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maquira guianensis est une espèce de plantes à fleurs à la famille des Moraceae. Il s'agit de l'espèce type du genre Maquira Aubl..
-C'est un arbre néotropical. Il est connu en Guyane sous les noms de Manletterhout (Sranan tongo), Sokonè (Arawak), Yanu'y'wa , Yawasitipa (Wayãpi)[3], Paya (Aluku)[4].
+C'est un arbre néotropical. Il est connu en Guyane sous les noms de Manletterhout (Sranan tongo), Sokonè (Arawak), Yanu'y'wa , Yawasitipa (Wayãpi), Paya (Aluku).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maquira guianensis est un arbre du sous-étage ou de la canopée, atteignant 10(–30) m de haut, dioïque ou parfois monoïque, à rameaux pubérulents.
 Il produit une latex blanc à jaunâtre.
@@ -536,16 +550,86 @@
 Le périanthe est haut de 1,3-3,0 mm, quadrifide, velouté brun.
 Le style est gonflé, densément pubérulent, et long d'environ 1,5 mm.
 Les stigmates obtus sont  en forme de langue, et longs de 1-1,5 cm.
-L'infructescence mesure (2-)3-4(4,5) cm de diamètre, avec les périanthes veloutés bruns, libres, forme oblongoïde, et hauts d'environ 1,5 cm[3],[5],[6].
-Son bois est brun orangé, finement strié de lignes claires, à grain fin, et très lourd (densité : 0,93)[7].
-On distingue deux sous-espèces dans ce taxon[8] :
-M. guianensis subsp. costaricana (Standl.) C.C. Berg
-Cette sous-espèce produit des arbres atteignant 35 m de haut. 
+L'infructescence mesure (2-)3-4(4,5) cm de diamètre, avec les périanthes veloutés bruns, libres, forme oblongoïde, et hauts d'environ 1,5 cm.
+Son bois est brun orangé, finement strié de lignes claires, à grain fin, et très lourd (densité : 0,93).
+On distingue deux sous-espèces dans ce taxon :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M. guianensis subsp. costaricana (Standl.) C.C. Berg</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce produit des arbres atteignant 35 m de haut. 
 Ses bractées sont involucrées avec une légère pubescence blanchâtre.
 Les pédoncules sont longs de 0–8 mm.
 Le périanthe fructifère est non ou à peine côtelé, et généralement subglabre.
-M. guianensis subsp. guianensis
-Cette sous-espèce, appelée Manichi au Venezuela (Yekwana), produit des arbres atteignant 25 m de haut. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M. guianensis subsp. guianensis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-espèce, appelée Manichi au Venezuela (Yekwana), produit des arbres atteignant 25 m de haut. 
 Ses bractées sont involucrées et couvertes d'une pubescence brune dense.
 Les pédoncules sont longs de 5–20 mm.
 Le périanthe fructifère est côtelé, et brun-velouté.
@@ -553,73 +637,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maquira_guianensis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maquira_guianensis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maquira guianensis est présent du Nicaragua au nord de l'Amérique du sud en passant par le Costa Rica, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil. Il est commun en Guyane et au Suriname mais inconnu au Guyana[3].
-La sous-espèce costaricana (Standl.) C.C. Berg est présente au Nicaragua, au Costa Rica, au Panama, en Colombie, au Venezuela (Bolívar), en Équateur, au Pérou, au Brésil et en Bolivie.
-La sous-espèce guianensisest présente au Venezuela (Bolívar, Zulia), au Guyana, au Suriname, en Guyane et au Brésil (Maranhão, Mato Grosso, Pará)[8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Maquira_guianensis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maquira_guianensis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maquira guianensis préfère les forêts de terre ferme (non inondées)[3].
-La sous-espèce costaricana (Standl.) C.C. Berg affectionne les forêts sur pentes boisées sèches, les lisières forestière autour de 400–700 m d'altitude.
-La sous-espèce guianensis pousse dans les forêts riveraines des terres hautes, autour de 200–1 400 m d'altitude[8].
-En Guyane, Maquira guianensis fleurit en août-septembre, et fructifie en février-avril[5]. 
-Dans le Mato Grosso, les fruits de Maquira guianensis sont consommés par le singe hurleur à mains rousses[9].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -641,12 +658,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maquira guianensis est présent du Nicaragua au nord de l'Amérique du sud en passant par le Costa Rica, le Panama, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Brésil. Il est commun en Guyane et au Suriname mais inconnu au Guyana.
+La sous-espèce costaricana (Standl.) C.C. Berg est présente au Nicaragua, au Costa Rica, au Panama, en Colombie, au Venezuela (Bolívar), en Équateur, au Pérou, au Brésil et en Bolivie.
+La sous-espèce guianensisest présente au Venezuela (Bolívar, Zulia), au Guyana, au Suriname, en Guyane et au Brésil (Maranhão, Mato Grosso, Pará).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maquira guianensis préfère les forêts de terre ferme (non inondées).
+La sous-espèce costaricana (Standl.) C.C. Berg affectionne les forêts sur pentes boisées sèches, les lisières forestière autour de 400–700 m d'altitude.
+La sous-espèce guianensis pousse dans les forêts riveraines des terres hautes, autour de 200–1 400 m d'altitude.
+En Guyane, Maquira guianensis fleurit en août-septembre, et fructifie en février-avril. 
+Dans le Mato Grosso, les fruits de Maquira guianensis sont consommés par le singe hurleur à mains rousses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maquira_guianensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[10] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MAQUIRA Guianenſis. (Tabula 389.)
 Arbor mediocris, trunco ſeptem-pedali, aci ſummitatem ramoſo; ramis undique ſparſis. Folia alterna, ovata, acuta, glabra, integerrima, brevi petiolata. Flores axillares, ſolitarii, bini aut terni, vel plures, ſpicati, fortè floſculoſi aut radiati. Calix communis, imbricatus ; squamis plurimis, minimis, acutis. Corolla nondum erat expanſa.
 Florere incipiebat Junio.
